--- a/vir_git.xlsx
+++ b/vir_git.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C8218-D207-4BE3-84D1-40E33820A5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>Sno</t>
   </si>
@@ -896,16 +890,16 @@
   </si>
   <si>
     <t>221.7.249.42</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,13 +914,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -961,42 +948,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1034,7 +1006,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1068,7 +1040,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1103,10 +1074,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1279,16 +1249,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,3115 +1285,2272 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="2"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="2"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>92</v>
       </c>
-      <c r="D85" s="2"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>94</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>95</v>
       </c>
-      <c r="D88" s="2"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="2"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>98</v>
       </c>
-      <c r="D91" s="2"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>99</v>
       </c>
-      <c r="D92" s="2"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>100</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>101</v>
       </c>
-      <c r="D94" s="2"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>102</v>
       </c>
-      <c r="D95" s="2"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>103</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>104</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>105</v>
       </c>
-      <c r="D98" s="2"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>106</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>107</v>
       </c>
-      <c r="D100" s="2"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>108</v>
       </c>
-      <c r="D101" s="2"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>109</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>110</v>
       </c>
-      <c r="D103" s="2"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>111</v>
       </c>
-      <c r="D104" s="2"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>112</v>
       </c>
-      <c r="D105" s="2"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>113</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>114</v>
       </c>
-      <c r="D107" s="2"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>115</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>116</v>
       </c>
-      <c r="D109" s="2"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>117</v>
       </c>
-      <c r="D110" s="2"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="2"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>119</v>
       </c>
-      <c r="D112" s="2"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>120</v>
       </c>
-      <c r="D113" s="2"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>121</v>
       </c>
-      <c r="D114" s="2"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>122</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>123</v>
       </c>
-      <c r="D116" s="2"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>124</v>
       </c>
-      <c r="D117" s="2"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>125</v>
       </c>
-      <c r="D118" s="2"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>126</v>
       </c>
-      <c r="D119" s="2"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>127</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>128</v>
       </c>
-      <c r="D121" s="2"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>129</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>130</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>131</v>
       </c>
-      <c r="D124" s="2"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>132</v>
       </c>
-      <c r="D125" s="2"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>133</v>
       </c>
-      <c r="D126" s="2"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>134</v>
       </c>
-      <c r="D127" s="2"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>135</v>
       </c>
-      <c r="D128" s="2"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>136</v>
       </c>
-      <c r="D129" s="2"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>137</v>
       </c>
-      <c r="D130" s="2"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>138</v>
       </c>
-      <c r="D131" s="2"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>139</v>
       </c>
-      <c r="D132" s="2"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>140</v>
       </c>
-      <c r="D133" s="2"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>141</v>
       </c>
-      <c r="D134" s="2"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>142</v>
       </c>
-      <c r="D135" s="2"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>143</v>
       </c>
-      <c r="D136" s="2"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>144</v>
       </c>
-      <c r="D137" s="2"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>145</v>
       </c>
-      <c r="D138" s="2"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>146</v>
       </c>
-      <c r="D139" s="2"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>147</v>
       </c>
-      <c r="D140" s="2"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>148</v>
       </c>
-      <c r="D141" s="2"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>149</v>
       </c>
-      <c r="D142" s="2"/>
-      <c r="H142" s="3"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>150</v>
       </c>
-      <c r="D143" s="2"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>151</v>
       </c>
-      <c r="D144" s="2"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>152</v>
       </c>
-      <c r="D145" s="2"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>153</v>
       </c>
-      <c r="D146" s="2"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>154</v>
       </c>
-      <c r="D147" s="2"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>155</v>
       </c>
-      <c r="D148" s="2"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>156</v>
       </c>
-      <c r="D149" s="2"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>157</v>
       </c>
-      <c r="D150" s="2"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>158</v>
       </c>
-      <c r="D151" s="2"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>159</v>
       </c>
-      <c r="D152" s="2"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>160</v>
       </c>
-      <c r="D153" s="2"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>161</v>
       </c>
-      <c r="D154" s="2"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>162</v>
       </c>
-      <c r="D155" s="2"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>163</v>
       </c>
-      <c r="D156" s="2"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>164</v>
       </c>
-      <c r="D157" s="2"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>165</v>
       </c>
-      <c r="D158" s="2"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>166</v>
       </c>
-      <c r="D159" s="2"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>167</v>
       </c>
-      <c r="D160" s="2"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>168</v>
       </c>
-      <c r="D161" s="2"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>169</v>
       </c>
-      <c r="D162" s="2"/>
-      <c r="H162" s="3"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>170</v>
       </c>
-      <c r="D163" s="2"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>171</v>
       </c>
-      <c r="D164" s="2"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>172</v>
       </c>
-      <c r="D165" s="2"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>173</v>
       </c>
-      <c r="D166" s="2"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>174</v>
       </c>
-      <c r="D167" s="2"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>175</v>
       </c>
-      <c r="D168" s="2"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>176</v>
       </c>
-      <c r="D169" s="2"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>177</v>
       </c>
-      <c r="D170" s="2"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>178</v>
       </c>
-      <c r="D171" s="2"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>179</v>
       </c>
-      <c r="D172" s="2"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>180</v>
       </c>
-      <c r="D173" s="2"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>181</v>
       </c>
-      <c r="D174" s="2"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>182</v>
       </c>
-      <c r="D175" s="2"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>183</v>
       </c>
-      <c r="D176" s="2"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>184</v>
       </c>
-      <c r="D177" s="2"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>185</v>
       </c>
-      <c r="D178" s="2"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>186</v>
       </c>
-      <c r="D179" s="2"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>187</v>
       </c>
-      <c r="D180" s="2"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>188</v>
       </c>
-      <c r="D181" s="2"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>189</v>
       </c>
-      <c r="D182" s="2"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>190</v>
       </c>
-      <c r="D183" s="2"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>191</v>
       </c>
-      <c r="D184" s="2"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>192</v>
       </c>
-      <c r="D185" s="2"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>193</v>
       </c>
-      <c r="D186" s="2"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>194</v>
       </c>
-      <c r="D187" s="2"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>195</v>
       </c>
-      <c r="D188" s="2"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>196</v>
       </c>
-      <c r="D189" s="2"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>197</v>
       </c>
-      <c r="D190" s="2"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>198</v>
       </c>
-      <c r="D191" s="2"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>199</v>
       </c>
-      <c r="D192" s="2"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>200</v>
       </c>
-      <c r="D193" s="2"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>201</v>
       </c>
-      <c r="D194" s="2"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>202</v>
       </c>
-      <c r="D195" s="2"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>203</v>
       </c>
-      <c r="D196" s="2"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>204</v>
       </c>
-      <c r="D197" s="2"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>205</v>
       </c>
-      <c r="D198" s="2"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>206</v>
       </c>
-      <c r="D199" s="2"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>207</v>
       </c>
-      <c r="D200" s="2"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>208</v>
       </c>
-      <c r="D201" s="2"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>209</v>
       </c>
-      <c r="D202" s="2"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>210</v>
       </c>
-      <c r="D203" s="2"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>211</v>
       </c>
-      <c r="D204" s="2"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>212</v>
       </c>
-      <c r="D205" s="2"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>213</v>
       </c>
-      <c r="D206" s="2"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>214</v>
       </c>
-      <c r="D207" s="2"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>215</v>
       </c>
-      <c r="D208" s="2"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>216</v>
       </c>
-      <c r="D209" s="2"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>217</v>
       </c>
-      <c r="D210" s="2"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>218</v>
       </c>
-      <c r="D211" s="2"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>219</v>
       </c>
-      <c r="D212" s="2"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>220</v>
       </c>
-      <c r="D213" s="2"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>221</v>
       </c>
-      <c r="D214" s="2"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>222</v>
       </c>
-      <c r="D215" s="2"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>223</v>
       </c>
-      <c r="D216" s="2"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>224</v>
       </c>
-      <c r="D217" s="2"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>225</v>
       </c>
-      <c r="D218" s="2"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>226</v>
       </c>
-      <c r="D219" s="2"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>227</v>
       </c>
-      <c r="D220" s="2"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>228</v>
       </c>
-      <c r="D221" s="2"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>229</v>
       </c>
-      <c r="D222" s="2"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>230</v>
       </c>
-      <c r="D223" s="2"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>231</v>
       </c>
-      <c r="D224" s="2"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>232</v>
       </c>
-      <c r="D225" s="2"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>233</v>
       </c>
-      <c r="D226" s="2"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>234</v>
       </c>
-      <c r="D227" s="2"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>235</v>
       </c>
-      <c r="D228" s="2"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>236</v>
       </c>
-      <c r="D229" s="2"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>237</v>
       </c>
-      <c r="D230" s="2"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>238</v>
       </c>
-      <c r="D231" s="2"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>239</v>
       </c>
-      <c r="D232" s="2"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>240</v>
       </c>
-      <c r="D233" s="2"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>241</v>
       </c>
-      <c r="D234" s="2"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>242</v>
       </c>
-      <c r="D235" s="2"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>243</v>
       </c>
-      <c r="D236" s="2"/>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>244</v>
       </c>
-      <c r="D237" s="2"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>245</v>
       </c>
-      <c r="D238" s="2"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>246</v>
       </c>
-      <c r="D239" s="2"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>247</v>
       </c>
-      <c r="D240" s="2"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>248</v>
       </c>
-      <c r="D241" s="2"/>
-      <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>249</v>
       </c>
-      <c r="D242" s="2"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>250</v>
       </c>
-      <c r="D243" s="2"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>251</v>
       </c>
-      <c r="D244" s="2"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>252</v>
       </c>
-      <c r="D245" s="2"/>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>253</v>
       </c>
-      <c r="D246" s="2"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>254</v>
       </c>
-      <c r="D247" s="2"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>255</v>
       </c>
-      <c r="D248" s="2"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>256</v>
       </c>
-      <c r="D249" s="2"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>257</v>
       </c>
-      <c r="D250" s="2"/>
-      <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>258</v>
       </c>
-      <c r="D251" s="2"/>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>259</v>
       </c>
-      <c r="D252" s="2"/>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>260</v>
       </c>
-      <c r="D253" s="2"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
         <v>261</v>
       </c>
-      <c r="D254" s="2"/>
-      <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>262</v>
       </c>
-      <c r="D255" s="2"/>
-      <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>263</v>
       </c>
-      <c r="D256" s="2"/>
-      <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>264</v>
       </c>
-      <c r="D257" s="2"/>
-      <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>265</v>
       </c>
-      <c r="D258" s="2"/>
-      <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
         <v>266</v>
       </c>
-      <c r="D259" s="2"/>
-      <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>267</v>
       </c>
-      <c r="D260" s="2"/>
-      <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>268</v>
       </c>
-      <c r="D261" s="2"/>
-      <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
         <v>269</v>
       </c>
-      <c r="D262" s="2"/>
-      <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
         <v>270</v>
       </c>
-      <c r="D263" s="2"/>
-      <c r="G263" s="3"/>
-      <c r="H263" s="3"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
         <v>271</v>
       </c>
-      <c r="D264" s="2"/>
-      <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
         <v>272</v>
       </c>
-      <c r="D265" s="2"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
         <v>273</v>
       </c>
-      <c r="D266" s="2"/>
-      <c r="G266" s="3"/>
-      <c r="H266" s="3"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
         <v>274</v>
       </c>
-      <c r="D267" s="2"/>
-      <c r="G267" s="3"/>
-      <c r="H267" s="3"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
         <v>275</v>
       </c>
-      <c r="D268" s="2"/>
-      <c r="G268" s="3"/>
-      <c r="H268" s="3"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
         <v>276</v>
       </c>
-      <c r="D269" s="2"/>
-      <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
         <v>277</v>
       </c>
-      <c r="D270" s="2"/>
-      <c r="G270" s="3"/>
-      <c r="H270" s="3"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
         <v>278</v>
       </c>
-      <c r="D271" s="2"/>
-      <c r="G271" s="3"/>
-      <c r="H271" s="3"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
         <v>279</v>
       </c>
-      <c r="D272" s="2"/>
-      <c r="G272" s="3"/>
-      <c r="H272" s="3"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
         <v>280</v>
       </c>
-      <c r="D273" s="2"/>
-      <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
         <v>281</v>
       </c>
-      <c r="D274" s="2"/>
-      <c r="G274" s="3"/>
-      <c r="H274" s="3"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
         <v>282</v>
       </c>
-      <c r="D275" s="2"/>
-      <c r="G275" s="3"/>
-      <c r="H275" s="3"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
         <v>283</v>
       </c>
-      <c r="D276" s="2"/>
-      <c r="G276" s="3"/>
-      <c r="H276" s="3"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
         <v>284</v>
       </c>
-      <c r="D277" s="2"/>
-      <c r="G277" s="3"/>
-      <c r="H277" s="3"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
         <v>285</v>
       </c>
-      <c r="D278" s="2"/>
-      <c r="G278" s="3"/>
-      <c r="H278" s="3"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
         <v>286</v>
       </c>
-      <c r="D279" s="2"/>
-      <c r="G279" s="3"/>
-      <c r="H279" s="3"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
         <v>287</v>
       </c>
-      <c r="D280" s="2"/>
-      <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
         <v>288</v>
       </c>
-      <c r="D281" s="2"/>
-      <c r="G281" s="3"/>
-      <c r="H281" s="3"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" t="s">
         <v>289</v>
       </c>
-      <c r="D282" s="2"/>
-      <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
         <v>290</v>
       </c>
-      <c r="D283" s="2"/>
-      <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
         <v>291</v>
       </c>
-      <c r="D284" s="2"/>
-      <c r="G284" s="3"/>
-      <c r="H284" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vir_git.xlsx
+++ b/vir_git.xlsx
@@ -892,7 +892,7 @@
     <t>221.7.249.42</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>Malicious</t>
   </si>
 </sst>
 </file>

--- a/vir_git.xlsx
+++ b/vir_git.xlsx
@@ -539,12 +539,32 @@
           <t>Malicious</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.virustotal.com/gui/ip-address/122.180.21.165/detection</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{'malicious': 11, 'suspicious': 0, 'undetected': 23, 'harmless': 56, 'timeout': 0}</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45328.50989583333</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45356.36078703704</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Bharti Airtel Ltd., Telemedia Services</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
